--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Ntn4-Dcc.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Ntn4-Dcc.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T9"/>
+  <dimension ref="A1:T5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,7 +528,7 @@
         <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E2">
         <v>3</v>
@@ -537,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>2.75977</v>
+        <v>2.250039333333334</v>
       </c>
       <c r="H2">
-        <v>8.279310000000001</v>
+        <v>6.750118000000001</v>
       </c>
       <c r="I2">
-        <v>0.06698501710740076</v>
+        <v>0.05266340474459803</v>
       </c>
       <c r="J2">
-        <v>0.06698501710740076</v>
+        <v>0.05266340474459803</v>
       </c>
       <c r="K2">
         <v>1</v>
@@ -555,33 +555,33 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>0.004495333333333334</v>
+        <v>0.05453333333333333</v>
       </c>
       <c r="N2">
-        <v>0.013486</v>
+        <v>0.1636</v>
       </c>
       <c r="O2">
-        <v>0.07615508848807925</v>
+        <v>1</v>
       </c>
       <c r="P2">
-        <v>0.07615508848807925</v>
+        <v>1</v>
       </c>
       <c r="Q2">
-        <v>0.01240608607333333</v>
+        <v>0.1227021449777778</v>
       </c>
       <c r="R2">
-        <v>0.11165477466</v>
+        <v>1.1043193048</v>
       </c>
       <c r="S2">
-        <v>0.005101249905189608</v>
+        <v>0.05266340474459803</v>
       </c>
       <c r="T2">
-        <v>0.005101249905189608</v>
+        <v>0.05266340474459803</v>
       </c>
     </row>
     <row r="3" spans="1:20">
       <c r="A3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B3" t="s">
         <v>24</v>
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>2.75977</v>
+        <v>18.996877</v>
       </c>
       <c r="H3">
-        <v>8.279310000000001</v>
+        <v>56.99063100000001</v>
       </c>
       <c r="I3">
-        <v>0.06698501710740076</v>
+        <v>0.4446323259834918</v>
       </c>
       <c r="J3">
-        <v>0.06698501710740076</v>
+        <v>0.4446323259834918</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -623,27 +623,27 @@
         <v>0.1636</v>
       </c>
       <c r="O3">
-        <v>0.9238449115119208</v>
+        <v>1</v>
       </c>
       <c r="P3">
-        <v>0.9238449115119207</v>
+        <v>1</v>
       </c>
       <c r="Q3">
-        <v>0.1504994573333333</v>
+        <v>1.035963025733333</v>
       </c>
       <c r="R3">
-        <v>1.354495116</v>
+        <v>9.323667231600002</v>
       </c>
       <c r="S3">
-        <v>0.06188376720221116</v>
+        <v>0.4446323259834918</v>
       </c>
       <c r="T3">
-        <v>0.06188376720221115</v>
+        <v>0.4446323259834918</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B4" t="s">
         <v>24</v>
@@ -652,7 +652,7 @@
         <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E4">
         <v>3</v>
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>18.996877</v>
+        <v>21.38027566666667</v>
       </c>
       <c r="H4">
-        <v>56.99063100000001</v>
+        <v>64.140827</v>
       </c>
       <c r="I4">
-        <v>0.4610913702345443</v>
+        <v>0.5004170790724312</v>
       </c>
       <c r="J4">
-        <v>0.4610913702345442</v>
+        <v>0.5004170790724313</v>
       </c>
       <c r="K4">
         <v>1</v>
@@ -679,33 +679,33 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>0.004495333333333334</v>
+        <v>0.05453333333333333</v>
       </c>
       <c r="N4">
-        <v>0.013486</v>
+        <v>0.1636</v>
       </c>
       <c r="O4">
-        <v>0.07615508848807925</v>
+        <v>1</v>
       </c>
       <c r="P4">
-        <v>0.07615508848807925</v>
+        <v>1</v>
       </c>
       <c r="Q4">
-        <v>0.08539729440733335</v>
+        <v>1.165937699688889</v>
       </c>
       <c r="R4">
-        <v>0.7685756496660002</v>
+        <v>10.4934392972</v>
       </c>
       <c r="S4">
-        <v>0.03511445410130143</v>
+        <v>0.5004170790724312</v>
       </c>
       <c r="T4">
-        <v>0.03511445410130143</v>
+        <v>0.5004170790724313</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B5" t="s">
         <v>24</v>
@@ -717,22 +717,22 @@
         <v>21</v>
       </c>
       <c r="E5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>18.996877</v>
+        <v>0.09771999999999999</v>
       </c>
       <c r="H5">
-        <v>56.99063100000001</v>
+        <v>0.29316</v>
       </c>
       <c r="I5">
-        <v>0.4610913702345443</v>
+        <v>0.002287190199478936</v>
       </c>
       <c r="J5">
-        <v>0.4610913702345442</v>
+        <v>0.002287190199478936</v>
       </c>
       <c r="K5">
         <v>1</v>
@@ -747,270 +747,22 @@
         <v>0.1636</v>
       </c>
       <c r="O5">
-        <v>0.9238449115119208</v>
+        <v>1</v>
       </c>
       <c r="P5">
-        <v>0.9238449115119207</v>
+        <v>1</v>
       </c>
       <c r="Q5">
-        <v>1.035963025733333</v>
+        <v>0.005328997333333333</v>
       </c>
       <c r="R5">
-        <v>9.323667231600002</v>
+        <v>0.047960976</v>
       </c>
       <c r="S5">
-        <v>0.4259769161332429</v>
+        <v>0.002287190199478936</v>
       </c>
       <c r="T5">
-        <v>0.4259769161332428</v>
-      </c>
-    </row>
-    <row r="6" spans="1:20">
-      <c r="A6" t="s">
-        <v>22</v>
-      </c>
-      <c r="B6" t="s">
-        <v>24</v>
-      </c>
-      <c r="C6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D6" t="s">
-        <v>20</v>
-      </c>
-      <c r="E6">
-        <v>3</v>
-      </c>
-      <c r="F6">
-        <v>1</v>
-      </c>
-      <c r="G6">
-        <v>19.36848366666667</v>
-      </c>
-      <c r="H6">
-        <v>58.105451</v>
-      </c>
-      <c r="I6">
-        <v>0.4701109910449345</v>
-      </c>
-      <c r="J6">
-        <v>0.4701109910449345</v>
-      </c>
-      <c r="K6">
-        <v>1</v>
-      </c>
-      <c r="L6">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M6">
-        <v>0.004495333333333334</v>
-      </c>
-      <c r="N6">
-        <v>0.013486</v>
-      </c>
-      <c r="O6">
-        <v>0.07615508848807925</v>
-      </c>
-      <c r="P6">
-        <v>0.07615508848807925</v>
-      </c>
-      <c r="Q6">
-        <v>0.0870677902428889</v>
-      </c>
-      <c r="R6">
-        <v>0.7836101121860001</v>
-      </c>
-      <c r="S6">
-        <v>0.03580134412224562</v>
-      </c>
-      <c r="T6">
-        <v>0.03580134412224562</v>
-      </c>
-    </row>
-    <row r="7" spans="1:20">
-      <c r="A7" t="s">
-        <v>22</v>
-      </c>
-      <c r="B7" t="s">
-        <v>24</v>
-      </c>
-      <c r="C7" t="s">
-        <v>25</v>
-      </c>
-      <c r="D7" t="s">
-        <v>21</v>
-      </c>
-      <c r="E7">
-        <v>3</v>
-      </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-      <c r="G7">
-        <v>19.36848366666667</v>
-      </c>
-      <c r="H7">
-        <v>58.105451</v>
-      </c>
-      <c r="I7">
-        <v>0.4701109910449345</v>
-      </c>
-      <c r="J7">
-        <v>0.4701109910449345</v>
-      </c>
-      <c r="K7">
-        <v>1</v>
-      </c>
-      <c r="L7">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M7">
-        <v>0.05453333333333333</v>
-      </c>
-      <c r="N7">
-        <v>0.1636</v>
-      </c>
-      <c r="O7">
-        <v>0.9238449115119208</v>
-      </c>
-      <c r="P7">
-        <v>0.9238449115119207</v>
-      </c>
-      <c r="Q7">
-        <v>1.056227975955556</v>
-      </c>
-      <c r="R7">
-        <v>9.5060517836</v>
-      </c>
-      <c r="S7">
-        <v>0.434309646922689</v>
-      </c>
-      <c r="T7">
-        <v>0.4343096469226889</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20">
-      <c r="A8" t="s">
-        <v>23</v>
-      </c>
-      <c r="B8" t="s">
-        <v>24</v>
-      </c>
-      <c r="C8" t="s">
-        <v>25</v>
-      </c>
-      <c r="D8" t="s">
-        <v>20</v>
-      </c>
-      <c r="E8">
-        <v>1</v>
-      </c>
-      <c r="F8">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G8">
-        <v>0.07467966666666666</v>
-      </c>
-      <c r="H8">
-        <v>0.224039</v>
-      </c>
-      <c r="I8">
-        <v>0.001812621613120533</v>
-      </c>
-      <c r="J8">
-        <v>0.001812621613120533</v>
-      </c>
-      <c r="K8">
-        <v>1</v>
-      </c>
-      <c r="L8">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M8">
-        <v>0.004495333333333334</v>
-      </c>
-      <c r="N8">
-        <v>0.013486</v>
-      </c>
-      <c r="O8">
-        <v>0.07615508848807925</v>
-      </c>
-      <c r="P8">
-        <v>0.07615508848807925</v>
-      </c>
-      <c r="Q8">
-        <v>0.0003357099948888889</v>
-      </c>
-      <c r="R8">
-        <v>0.003021389954</v>
-      </c>
-      <c r="S8">
-        <v>0.0001380403593425991</v>
-      </c>
-      <c r="T8">
-        <v>0.0001380403593425991</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20">
-      <c r="A9" t="s">
-        <v>23</v>
-      </c>
-      <c r="B9" t="s">
-        <v>24</v>
-      </c>
-      <c r="C9" t="s">
-        <v>25</v>
-      </c>
-      <c r="D9" t="s">
-        <v>21</v>
-      </c>
-      <c r="E9">
-        <v>1</v>
-      </c>
-      <c r="F9">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="G9">
-        <v>0.07467966666666666</v>
-      </c>
-      <c r="H9">
-        <v>0.224039</v>
-      </c>
-      <c r="I9">
-        <v>0.001812621613120533</v>
-      </c>
-      <c r="J9">
-        <v>0.001812621613120533</v>
-      </c>
-      <c r="K9">
-        <v>1</v>
-      </c>
-      <c r="L9">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M9">
-        <v>0.05453333333333333</v>
-      </c>
-      <c r="N9">
-        <v>0.1636</v>
-      </c>
-      <c r="O9">
-        <v>0.9238449115119208</v>
-      </c>
-      <c r="P9">
-        <v>0.9238449115119207</v>
-      </c>
-      <c r="Q9">
-        <v>0.004072531155555554</v>
-      </c>
-      <c r="R9">
-        <v>0.03665278039999999</v>
-      </c>
-      <c r="S9">
-        <v>0.001674581253777934</v>
-      </c>
-      <c r="T9">
-        <v>0.001674581253777933</v>
+        <v>0.002287190199478936</v>
       </c>
     </row>
   </sheetData>
